--- a/resources/Port Definitions.xlsx
+++ b/resources/Port Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\IO-Aero\io-avstats\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39746D64-1B92-4225-AB1F-251C80B91893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D778A-1446-4B76-AE09-7AC9FC0E6984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{C6FF459B-9E92-4990-88F0-CA8109C0B145}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="20880" xr2:uid="{C6FF459B-9E92-4990-88F0-CA8109C0B145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>local</t>
   </si>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,8 +659,8 @@
       <c r="D2" s="2">
         <v>8080</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+      <c r="E2" s="2">
+        <v>8080</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,8 +676,8 @@
       <c r="D3" s="2">
         <v>8080</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+      <c r="E3" s="2">
+        <v>8080</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,11 +690,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
         <v>8080</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,11 +707,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
         <v>8080</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
